--- a/year/2025/1w/VOC 1w 원본_3점.xlsx
+++ b/year/2025/1w/VOC 1w 원본_3점.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>junk****</t>
+          <t>raim***</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -501,33 +501,43 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>좋은점 : 사진과 같이 디자인이 마음에 들어서 구입했으며 똑같다
-안좋은점 :
-1)스피드랙류 선반을 3개째 구입함. 이 제품은 사은품으로 준 플라스틱 망치로 치면 유리깨지는 소리가 나며 이웃집에서 시끄럽다고 항의가 들어온다 결정적으로 플라스틱망치로는 수십번 때려도 절대 조립이 안되어 다이소 고무망치로 때렸더니 그나마 잘 들어가서 간신히 조립함. 여긴 사은품 망치를 다이소 급으로 올려야함 그렇다고 손으로 조립할만큼 가공이 정밀하지 못함 조립하다보면 페인트 다 까져서 바닥이 지저분 해짐.원조제품이 조립하기 편하고 깔끔함
-2) 나무선반이 코팅된것을 강조하는데 위 아래만 되어있고 옆쪽은 코팅이 안되어서 새집증후군 냄새(나무냄새)심하게 남 방에다 놓을려다 창고로 긴급히 옮겼으며 포름알데히드가 걱정되어 나무코팅제사서 옆면 4면을 사서 발랏더니 다행이 진정됨 원가 아낄려고 이런거 팔지말고 타회사(원조)처럼 모든곳 코팅해서 팔길 바래요</t>
+          <t>제가 처음에 받았을 때 상자 개봉하기 전 상자 모습입니다. 찍힌 곳이 많아 걱정했는데
+다행히 제품은 멀쩡했어요.
+다른 회사 제품 써보고, 이 회사 제품을 샀는데요. 이 제품 상판 받쳐주는 철이 휘어진달까요.
+탄성이 있다 해야할까요..
+무게 못버티면 상판 아래로 꺼져요.
+절대 제품 설명에 있는 하중 버틸 수 있나 의문이 생깁니다.
+캠핑용품 올라가긴 합니다만.. 텐트 무게가 20키로 조금 넘는데 그 이상 넘어가면 버틸까.. 하는 생각이 들기도 하네요.. 1200 샀는데 전 중간 보강대 안했는데 필요할 가능성 높습니다.
+합판은 제가 구매한것 보다 두꺼운걸 구매하는게 좋을것 같아요
+(두개 포개고 보니까 아 t12살껄 하고 후회했습니다)
+우선 상판을 잡아주는 그철 부분이 밀리면서 무게에의해 상판이 무너집니다. 그부분 정말 약해요.
+다른회사 제품 사서 설치해 봤는데 너무 튼튼해서 좋구나 하고,
+이 회사 제품이 디자인이 더 이쁘고 다양한 방법으로 선반을 설치 할 수 있겠다 싶어 구매 했는데요..
+ㅎㅎ 전 다시 살 수 있다면 처음 선택한 회사 제품 선택할것 같습니다.
+여튼 저는 설치 했고 정리 다해놨기에 그냥 쓰기로 했습니다. 수고하세요.</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>464</v>
+        <v>581</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>가로(W) mm: 1200 / 깊이(폭) mm: 500 / 높이(H) mm: 900(기본2단)</t>
+          <t>가로(설치시 여유공간확보): 1200 / 깊이(mm): 600 / 높이(mm): 1950(기본2단)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://smartstore.naver.com/hora1101/products/5541646809</t>
+          <t>https://smartstore.naver.com/estorehouse/products/4924889751</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>슈랙</t>
+          <t>홈던트하우스</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -537,7 +547,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>호라 (추가4)</t>
+          <t>스피드랙 온라인지점</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -549,38 +559,43 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>mari******</t>
+          <t>nate***</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-06-29</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>왜 기존 가구들은 볼트와 너트를 사용한 게 많을까요? 그게 더 조립하기 쉽고 견고하기 때문입니다. 여태껏 가구 조립하면서 이렇게 스트레스 받은 적은 또 처음이네요. 렌치와 드라이버로 하면 금방 끝날 일을 망치로 두들기느라 불필요한 소음은 덤이고, 기둥은 2단으로 나뉘어 결합부가 약해서 조립을 다 끝내도 흔들거리기 일쑤입니다. 진짜 혁신적인 설계 덕분에 한 시간을 낭비했네요.  어지간해선 네이버 리뷰를 남기지 않는 편인데 어이가 없어서 남깁니다. 사기 전에 '왜 이렇게 설계를 했지?'라는 리뷰를 본 것 같은데 그 리뷰를 무시하고 구매한 제 자신이 너무 한심하네요. 희미해졌던 돈의 소중함을 뼈저리게 깨닫고 싶으신 분들에게 적극 추천합니다.</t>
+          <t>부모님 댁에 설치를 위해 본 사이트에서 주문해서 지방으로 먼길 와서 
+오늘 조립 시작했는데 합판이 썩은 것인지... 삭은 것인지 검수도 안 하고 보내셨네요.ㅠㅠ
+조립중이라 그냥 얹혀 놨는데 새것으로 검수 후 다시 보내주세요.
+좋은 평들보고 샀는데, 물건 받아보고 실망입니다.
+배송중에 파손은 아닌 것 같고 갈라집과 벗겨짐 둘 다 있는 것 보니 오래된 삭은 재고를 보낸듯하네요.
+빠른 조치 바랍니다. 5단을 주문했고 1단이 문제입니다.</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>359</v>
+        <v>242</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>가로 x 깊이(폭)(mm): 가로1200 x 깊이500 / 높이 (mm): 높이2100 / 구성 선택: 행거봉 1개 / 선반 3단</t>
+          <t>가로사이즈 (mm): 가로1200mm / 깊이(폭)사이즈 (mm): 깊이(폭)700mm / 높이(기둥)사이즈 (mm) + 단수: 높이(기둥)1800mm(2단)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://smartstore.naver.com/shurackathome/products/4584628047</t>
+          <t>https://smartstore.naver.com/sunbanstory/products/6423922812</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>슈랙</t>
+          <t>홈던트하우스</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -590,19 +605,19 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>슈랙</t>
+          <t>앵그리선반</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>행거</t>
+          <t>선반</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>kimj*****</t>
+          <t>tiqp*****</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -610,34 +625,37 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-06-27</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>기존엔 다른 브랜드의 비슷한 종류의 선반을 사용중이었다가
-작게 하나 더 필요해져서 구매했으나,,,,
-일단 상판 두개 모두 파손(?)이 되어서 배송이 왔구요
-같은 충격의 여파인지 메인 지지대 하나도 각도가 많이 접어져 있네요 ㅜㅜ
-전체적인 만듦새도 타제품 대비 좀 아쉽습니다... ㅠ</t>
+          <t>스피드랙이 참 맘에 드는 상품이어서
+수납공간 부족할때마다 사고 있는데
+여기 판매자님 글은 오해의 소재가 있어서 별로네요
+판매자분께서 제목을 '4단'이라고 적어놨는데,
+실제로 온거는 '2단'이네요.
+옵션에 '2단'이 있길래
+당연히 4단+2단 인줄 알았더니만
+에휴, 장난질에 속아가는거 같아서 별로입니다</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>가로(폭): 1100 / 세로(깊이): 500 / 높이(mm): 900(2단)</t>
+          <t>가로(mm)x깊이(mm): 1500x400 / 높이(mm): 2100(분리기둥) / 단수: 2단</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://smartstore.naver.com/speedrackstore/products/8693661267</t>
+          <t>https://smartstore.naver.com/moarack/products/722637202</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>홈던트하우스</t>
+          <t>스피드랙</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -647,7 +665,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>랙홈(추가)</t>
+          <t>모아랙</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -659,40 +677,38 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>idco***</t>
+          <t>yool***</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-06-26</t>
+          <t>2024-12-30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>세탁기 수납용을 구매하고 나서 옷장용을 샀는데 한번 사봐서 대충 샀더니 중간에 플라스틱으로 이어서 사용하는 거네요
-길이가 2100라서 흔들거림이 있어 조금 불안하긴 합니다
-초반에 뭐 많이 묻어있어 스크레치인줄 알았는데 닦으니까 닦이긴해서 다행인데 그만큼 품이 많이 들어서 힘들긴 하네요</t>
+          <t>화이트가 아니라 아이보리 or 크림색이에요. 정확한 표기가 필요할 것 같네요. 타사에는 아이보리길래 일부러 화이트 찾아 여기서 주문했는데;::; 상판은 그리고 화이트예요. 즉 프레임이랑 상판이 색이 좀 달라요. 완성도가 좀 떨어지는 제품입니다.</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>가로(mm) x 깊이(mm): 600 x 400 / 높이(mm): 2100 / 단수(합판갯수) / 행거봉: 2단 / 행거봉1개</t>
+          <t>가로X깊이 (6면코팅합판+앵글): 가로800 X 깊이400 / 높이 (mm /일체형기둥): 높이 1500 / 선반단수 (칸수): 4단선반 (3칸)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://smartstore.naver.com/nrshopping/products/5494861064</t>
+          <t>https://smartstore.naver.com/anglestudio/products/4763594399</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>홈던트하우스</t>
+          <t>피피랙</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -702,19 +718,19 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>나라 (추가5)</t>
+          <t>조립식앵글스튜디오</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>행거</t>
+          <t>선반</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>imlo*******</t>
+          <t>gu****</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -722,31 +738,33 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6주문 했는데 그중 하나는 선반이 심하게 찍혔는데 검수를 제대로 하지 못하고 왔습니다 
-사진을 보면 택배중에 됐다고 보기는 어렵습니다 박스로 저렇게 찍히기는 어렵습니다 공장에서 옮기다가 앵글날에 찍혀서 박스를 뚫고 판자까지 깊게 패였습니다 반품이 어려워 그냥 사용합니다</t>
+          <t>생각보단 견고하진 않지만, 설치하고 나니 깔끔하네요.
+설치는 어렵지않았습니다.
+추가로 커튼을 더 구매 해야하는데..
+첨부터 같이 했으면, 사은품도 받고 더 싸게 구매했을텐데, 더 비싸게 구매하는 느낌이라 아쉽네요.ㅜㅜ</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>가로x깊이(mm): 1200x600 / 높이(mm): 1800 / 단수(칸)고급합판포함: 4단(3칸)고급합판포함</t>
+          <t>가로 x 깊이(폭)(mm): 가로1200 x 깊이600 / 높이 (mm): 높이2100 / 구성 선택: 행거봉 2개 / 선반 3단</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://smartstore.naver.com/easycontact/products/4698535656</t>
+          <t>https://smartstore.naver.com/shurackathome/products/4584628047</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>피피랙</t>
+          <t>슈랙</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -756,19 +774,19 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>이지컨텍</t>
+          <t>슈랙</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>선반</t>
+          <t>행거</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>love*******</t>
+          <t>gu****</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -776,26 +794,28 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2024-06-26</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>배송도 빠르고 참좋은데 높이가 높으면 브라켓이 많이 흔들려요 작은 높이는 상관 없이 튼튼한데 그리도 망치 좀 다른걸로 바꾸셔야 할 것 같아요 때릴때마다 부스러기 떨어져서 치우는것도 일이에요
-여기만 시킨게 아니라서 리뷰 남깁니다.</t>
+          <t>생각보단 견고하진 않지만, 설치하고 나니 깔끔하네요.
+설치는 어렵지않았습니다.
+추가로 커튼을 더 구매 해야하는데..
+첨부터 같이 했으면, 사은품도 받고 더 싸게 구매했을텐데, 아쉽네요.ㅜㅜ</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>가로(W) mm: 1100 / 깊이(D) mm: 500 / 높이(H) mm: 600 (기본 2단)</t>
+          <t>가로 x 깊이(폭)(mm): 가로1200 x 깊이600 / 높이 (mm): 높이2100 / 구성 선택: 행거봉 1개 / 선반 3단</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://smartstore.naver.com/checknsell/products/4770564406</t>
+          <t>https://smartstore.naver.com/shurackathome/products/4584628047</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -810,50 +830,55 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>체크앤셀</t>
+          <t>슈랙</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>선반</t>
+          <t>행거</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>love*******</t>
+          <t>th****</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024-06-26</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>배송도 빠르고 참 좋은데 높이가 180인데 브라켓 부분이 너무 흔들려요 브라켓 부분은 다른회사처럼 편하고 튼튼하게 만드셔야 할 것 같아요 색깔도 좋아요 그리고 망치 두드릴때마다 부스러기가 너무 떨어져요...</t>
+          <t>정리는 잘되고 좋네요
+나무판은 모서리가 다 부서져서 왔어요
+커튼은 퀄리티가 좀 짜치네요
+사이즈도 범용으로 만들어서 너무크고
+봉도 돌려서 길이맞추는게 좀 짜쳐요
+기대가 너무컸나봐요...</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>가로(W) mm: 1200 / 깊이(D) mm: 400 / 높이(H) mm: 1800 (기본 2단)</t>
+          <t>가로(폭)x세로(깊이)(mm): 900x700 / 높이(mm): 1950 / 단수: 3단</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://smartstore.naver.com/checknsell/products/4770564406</t>
+          <t>https://smartstore.naver.com/firsteco/products/8816452635</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>슈랙</t>
+          <t>홈던트하우스</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -863,7 +888,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>체크앤셀</t>
+          <t>에코퍼스트클로벌(추가7)</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -875,7 +900,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>judy****</t>
+          <t>cupi****</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -883,32 +908,30 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2024-06-26</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>몇년전 구매 했을때와 합판이 완전 다름
-미리 사진에 공지 좀 해주시지…
-글로시한 합판이였는데 이번 판은 나무도 넘 잘 찍히고 너무 약해보여요 원가 상승때문에 그렇다던데 ..</t>
+          <t>튼튼하고 깔끔한데  조립설명서가 좀 어려워요  조립을 잘못한건지 높이도 안맞고... 제가 조립하는게 아니라 다행이지만  높이가 다른부분을 이해를 시켜주심 좋을텐데  그냥 사용할려고요</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>가로 x 폭(깊이): 가로150cm x 폭40cm / 높이(기둥): 높이180cm / 단수(합판장수): 5단 올코팅선반5장 9T</t>
+          <t>가로(폭): 900 / 세로(깊이): 700 / 높이(mm): 1950(4단)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://smartstore.naver.com/angle/products/262649205</t>
+          <t>https://smartstore.naver.com/speedrackstore/products/8693661267</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>스피드랙</t>
+          <t>홈던트하우스</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -918,7 +941,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>마스타앵글</t>
+          <t>랙홈(추가)</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -930,7 +953,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>draw******</t>
+          <t>iksa****</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -938,31 +961,30 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024-06-26</t>
+          <t>2024-12-30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>조립하기 편하고 원하는 크기에 깔끔합니다.
-다소아쉬운점은 선반 받침이 나무가 아니라 습한곳에 오래두면 처질 위험이 있어 보입니다.</t>
+          <t>설명서가 좀 세밀하게 큰 사진으로 작성되었으면 좋겠고 앵글에 비해 세로 기둥이 좀 약하며 아주 무거운 물건을 놓기에는 부족한 느낌.  각 부품의 철판 두께가 약하다는 느낌 .</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>가로x깊이: 가로1000x깊이500 / 높이: 1800(2.5단)</t>
+          <t>가로(폭)x세로(깊이)(mm): 1000x500 / 높이(mm): 2100 / (단수)12T양면강화합판: 5단(12T양면강화합판)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://brand.naver.com/speedrack/products/8304810143</t>
+          <t>https://smartstore.naver.com/speedrackstore/products/8854765090</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>홈던트하우스</t>
+          <t>스피드랙</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -972,46 +994,48 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>스피드랙 온라인지점(추가5)</t>
+          <t>퍼스트랙</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>선반(하단오픈형)</t>
+          <t>선반</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>cj****</t>
+          <t>hoyo****</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2024-06-27</t>
+          <t>2025-01-02</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>생각보다  설치 하기 빡세습니다
-힘도 많이줘야 하고 조립할때 페인트도 까져서 페인트 부스러기가 여기 저기 날아다녀 별루였어요</t>
+          <t>서비스 최악입니다.
+길이 맞춰보고 문의 했더니 반품도 안되고 환불도 안되고 
+내 돈으로 사서 맞춰보고 교환 안되는 곳은 여기 뿐입니다.
+진짜 최악입니다.</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>가로(mm): 500 / 깊이(mm): 500 / 높이(mm)/단수: 1500/선반=기본2단</t>
+          <t>가로 x 깊이(폭)(mm): 가로900 x 깊이500 / 높이 (mm): 높이1800 / 구성 선택: 행거봉 2개 / 선반 3단</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://smartstore.naver.com/sunhee/products/4595206298</t>
+          <t>https://smartstore.naver.com/shurackathome/products/4584628047</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1026,19 +1050,19 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>서연앵글(추가)</t>
+          <t>슈랙</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>선반</t>
+          <t>행거</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>네이버 페이 구매자</t>
+          <t>kang******</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1046,26 +1070,26 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2024-06-29</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>흔들림이 크게 개선되지는 않았습니다ㅜㅜ
-(2024-06-28 18:09:06 에 등록된 네이버 페이 구매평)</t>
+          <t>홈던트 선반은 늘 애용하는 제품이에용!!! 근데 이번에 처음으로 불량 걸렸네요ㅠㅠ
+끼우는 폼이 불량인지 다른칸은 잘 들어가는데 위에만 들어가질 않아여ㅠ</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>홈던트하우스 부품 사이드안전바, L형 플레이트 세트</t>
+          <t>가로(설치시 여유공간확보): 400 / 깊이(mm): 300 / 높이(mm): 1500(기본2단)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://speedrack.co.kr/product/detailSimulator.html?product_no=136</t>
+          <t>https://smartstore.naver.com/estorehouse/products/4924889751</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1075,52 +1099,50 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>자사몰</t>
+          <t>스마트스토어</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>스피드랙 공식몰</t>
+          <t>스피드랙 온라인지점</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>선반(추가부품)</t>
+          <t>선반</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>dark*********</t>
+          <t>pmy1***</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2024-06-26</t>
+          <t>2024-12-30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>최악이네요 한단만 추가구매 했는데
-찍힘과 오염자국이 있네요~
-세트로 샀을때는 깨끗하게 왔는데 이번엔 실망입니다</t>
+          <t>그날 조립이 다 섞여와서 짜증났었지만 잘 사용하고 있습니다.  넘 무거운것을 올리면 약간 처지는건 어쩔수없네요. 중긴에 받침을 더 끼우면 좋을거같습니다</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>추가상품명: 홈던트하우스 9T 행거 단추가세트 / 추가상품값: 700x600(화이트)</t>
+          <t>가로(폭)x세로(깊이)(mm): 900x400 / 높이(mm): 1650 / 단수: 3단</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://brand.naver.com/speedrack/products/4930705433</t>
+          <t>https://smartstore.naver.com/firsteco/products/8816452635</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1135,19 +1157,19 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>스피드랙 온라인지점</t>
+          <t>에코퍼스트클로벌(추가7)</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>선반 추가부품(추가3)</t>
+          <t>선반</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>angl***</t>
+          <t>dhsr*****</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1155,30 +1177,31 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>전에 샀던 것이라 재구매했어요~ 조립하는 게 크게 어렵지는 않아 구매 결정했습니다~ 추천 ~!</t>
+          <t>쿠팡에서 스피드랙 제품을 샀었는데 일부구성품 누락으로 인해서 결국 따로 추가구매를 할수밖에 없었네요..
+제품은 튼튼하고 좋습니다</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>가로(폭)x세로(깊이)(mm): 900x600(mm) / 높이(mm): 1800(mm) / 단수 / 행거봉: 선반2단(2개) / 행거봉 1개</t>
+          <t>제품유형: 받침 낱개(사이드 안전바) / 사이즈: 400mm / 색상: 백색</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://smartstore.naver.com/firsteco/products/7642958603</t>
+          <t>https://brand.naver.com/speedrack/products/416074213</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>홈던트하우스</t>
+          <t>스피드랙</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1188,52 +1211,50 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>퍼스트에코(추가5)</t>
+          <t>스피드랙 온라인지점(추가3)</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t xml:space="preserve">행거 </t>
+          <t>선반 추가부품</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>oa****</t>
+          <t>kero****</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2024-06-26</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>그냥 괜찮아요
-좋은것만 보자하면 좋고
-단점만 보자하면 싼만큼 그 값을 하는 것 같아요</t>
+          <t>선반에 물빠지는 구멍이 전혀 없어 물떼가 자주끼고..주기적으로 선반에 물건들을 다 빼서 청소 해줘야 하는 번거로움이 있음..</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>가로(mm) x 깊이(mm): 900 x 400 / 높이(mm): 1800 / 단수(합판갯수): 4단</t>
+          <t>가로(mm): 1200 / 깊이(mm): 500 / 높이(mm)/단수: 2100/선반=기본2단</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://smartstore.naver.com/trendkorea/products/8713897963</t>
+          <t>https://smartstore.naver.com/sunhee/products/4567363766</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>스피드랙</t>
+          <t>슈랙</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1243,7 +1264,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>트렌드코리아(추가7)</t>
+          <t>서연(추가6)</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1255,7 +1276,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>gson****</t>
+          <t>bomb*****</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1263,30 +1284,31 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2024-06-23</t>
+          <t>2025-01-02</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>좀 휘청거려서 아쉽습니다. 가벼운 것들 올려놓고 사용하기엔 괜찮습니다.</t>
+          <t>건조기위에 설치하려고 주문했는데 여자혼자조립은 무겁고 힘드네요
+볼트로 조이는게 아니라 흔들림이 있어서 추가로 부품구매했어요</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>색상선택: ○화이트 (유광 아이보리)○ / 가로X깊이 (6면코팅합판+앵글): 가로400 X 깊이300 / 높이(mm)(기본2단/기본3단): 높이900 (기본 2단=1칸)</t>
+          <t>가로(폭): 800 / 세로(깊이): 700 / 높이(mm): 1800(3단)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://smartstore.naver.com/anglestudio/products/4763594399</t>
+          <t>https://smartstore.naver.com/speedrackstore/products/8693661267</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>피피랙</t>
+          <t>홈던트하우스</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1296,7 +1318,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>조립식앵글스튜디오</t>
+          <t>랙홈(추가)</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1308,38 +1330,38 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ams2***</t>
+          <t>plan****</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2024-06-26</t>
+          <t>2024-12-30</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>사이즈 주문할때 기둥두께를 간과했어요 전자렌지 문이 열리다말아요</t>
+          <t>결합방식 때문에 들고 이동 후 설치할 수 없습니다. 설치할 자리에서 설치해야합니다. 들면 빠져버립니다. 합판이 약합니다.</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>가로(W) mm: 500 / 깊이(D) mm: 400 / 높이(H) mm: 1800 (기본 2단)</t>
+          <t>가로X깊이 (6면코팅합판+앵글): 가로800 X 깊이800 (주문제작) / 높이 (mm /일체형기둥): 높이 1800 / 선반단수(칸수) +후크4개: 2단선반(1칸) +후크4개</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://smartstore.naver.com/shurack1/products/4591755185</t>
+          <t>https://smartstore.naver.com/anglestudio/products/4703381999</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>슈랙</t>
+          <t>피피랙</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1349,7 +1371,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>슈랙 본사(추가)</t>
+          <t>수나비(추가7)</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1361,7 +1383,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>deli******</t>
+          <t>🗣️</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1369,52 +1391,54 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2024-06-27</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>배송은 잘 받았습니다. 합판 끝부분 마감이 깨끗하지가 않아요ㅠ</t>
+          <t>다용도실에 렌지대랑 이것저것 올리기 위해 주문해서 설치했어요 
+튼튼하고 사이즈 조절 가능하니 좋습니다 ^^</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>추가상품명: 홈던트하우스 9T 선반 단추가세트 / 추가상품값: 600x400(화이트)</t>
+          <t>홈던트하우스 조립식 팬트리 철제 수납 선반 앵글
+가로x깊이(설치시 여유공간확보): 홈던트하우스 600x400 / 높이(프레임색상): 1800 2단 (화이트)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://brand.naver.com/speedrack/products/4930705433</t>
+          <t>https://ohou.se/productions/436103/selling</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>홈던트하우스</t>
+          <t>스피드랙</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>스마트스토어</t>
+          <t>오늘의집</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>스피드랙 온라인지점</t>
+          <t>㈜스피드랙 온라인지점(추가5)</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>선반 추가부품(추가3)</t>
+          <t>선반</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ayin****</t>
+          <t>ehdc******</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1422,30 +1446,30 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2024-06-29</t>
+          <t>2025-01-02</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>선택을 잘못했는지 기중과 여러 철재들이 약하네요. 흔들 흔들</t>
+          <t>조립하기 편하네요 다만 판이 얇다보니 두꺼운판 이나 다른변경할수있는점이 있으면 좋을것 같아요</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>가로(mm) x 깊이(mm): 800 x 600 / 높이(mm): 2100 / 단수(합판갯수): 4단</t>
+          <t>가로(폭): 1200 / 세로(깊이): 300 / 높이(mm): 1800(4단)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://smartstore.naver.com/trendkorea/products/8713897963</t>
+          <t>https://smartstore.naver.com/speedrackstore/products/8693661267</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>스피드랙</t>
+          <t>홈던트하우스</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1455,7 +1479,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>트렌드코리아(추가7)</t>
+          <t>랙홈(추가)</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1467,7 +1491,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ohayyy</t>
+          <t>iksa****</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1475,26 +1499,25 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2024-12-30</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>망치가 같이와서 만들기 수월하고 혼자서도 가능해보여요</t>
+          <t>브랜드에 비해 좀 가성비가 떨어집니다.철판의 두께가 얇아요,무거운 물건을 올려 놓기에는 약함</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>무볼트 드레스룸 조립식 철제 시스템행거 2colors
-추가상품 - 행거 단추가세트 가로800x깊이500 화이트</t>
+          <t>가로(폭)x세로(깊이)(mm): 1500x500 / 높이(mm): 2100 / (단수)12T양면강화합판: 4단(12T양면강화합판)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://ohou.se/productions/436103/selling</t>
+          <t>https://smartstore.naver.com/speedrackstore/products/8854765090</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1504,12 +1527,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>오늘의집</t>
+          <t>스마트스토어</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>㈜스피드랙 온라인지점(추가5)</t>
+          <t>퍼스트랙</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1521,7 +1544,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>cool*****</t>
+          <t>jun2****</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1529,30 +1552,30 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2025-01-02</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>가성비가 좋습니다. 색상이 마음에 듭니다.</t>
+          <t>6년전쯤 구매해서 잘 쓰고 있어서 주문 했는데 이전것보다 철이 덜 단단해요</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>색상선택: ●블랙 (무광 검정)● / 가로X깊이 (6면코팅합판+앵글): 가로800 X 깊이700 / 높이(mm)(기본2단/기본3단): 높이900 (기본 2단=1칸)</t>
+          <t>가로(mm) x 깊이(mm): 1100 x 700 / 높이(mm): 1800 / 단수(합판갯수): 4단</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://smartstore.naver.com/anglestudio/products/4763594399</t>
+          <t>https://smartstore.naver.com/nrshopping/products/8051763000</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>피피랙</t>
+          <t>스피드랙</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1562,7 +1585,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>조립식앵글스튜디오</t>
+          <t>나라(추가5)</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1574,7 +1597,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>zizo*****</t>
+          <t>homi****</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1582,30 +1605,30 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2024-06-29</t>
+          <t>2024-12-30</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>엄마베란다에놔드렸는데정리하기좋은거같아요</t>
+          <t>튼튼하고 조립하기 쉬워요 2인 1조가 편합니다 근데 좀 비싸요</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>가로(폭)x세로(깊이)(mm): 800x600 / 높이(mm): 1800 / 단수: 4단</t>
+          <t>가로X깊이 (6면코팅합판+앵글): 가로500 X 깊이400 / 높이 (mm /일체형기둥): 높이 1800 / 선반단수 (칸수): 4단선반 (3칸)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://smartstore.naver.com/firsteco/products/8816452635</t>
+          <t>https://smartstore.naver.com/anglestudio/products/4763594399</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>홈던트하우스</t>
+          <t>피피랙</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1615,7 +1638,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>에코퍼스트클로벌(추가7)</t>
+          <t>조립식앵글스튜디오</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1627,7 +1650,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>leek****</t>
+          <t>ijas****</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1635,30 +1658,30 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2024-06-23</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>조립하기 쉽네요 생각보다 튼는해보여요</t>
+          <t>튼튼하고 좋네요 선반에 갈라진 점이 있긴 했으나 그냥 쓸래요</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>가로(폭)x세로(깊이)(mm): 900x400 / 높이(mm): 1800 / 단수(스피드랙): 5단</t>
+          <t>가로 (mm): 가로800 / 깊이(폭) (mm): 깊이600 / 높이 (mm): 높이2100 (기본2단)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://smartstore.naver.com/speedrackstore/products/8805641337</t>
+          <t>https://smartstore.naver.com/shurackathome/products/4729605821</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>스피드랙</t>
+          <t>슈랙</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1668,7 +1691,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>랙홈(추가7)</t>
+          <t>아이디밋(추가6)</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1680,33 +1703,33 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>jiwo*****</t>
+          <t>panz*******</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2024-06-23</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>결속려고 내구성이 아주 안좋습니다.</t>
+          <t>엄청 견고한 수줌은 아니고 집에서 딱 가정용으로 쓸 정도네요</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>가로X깊이 (mm): 9T 양면코팅합판 1200X400 / 높이(mm): 2100(분리형기둥) / 단수(합판장수): 5단</t>
+          <t>가로(폭)x세로(깊이)(mm): 1100x600 / 높이(mm): 900 / 단수(스피드랙): 2단</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://smartstore.naver.com/wabaangle/products/424319043</t>
+          <t>https://smartstore.naver.com/speedrackstore/products/8805641337</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1721,7 +1744,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>와바앵글</t>
+          <t>랙홈(추가7)</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1733,7 +1756,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>gwon******</t>
+          <t>mcud*****</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1741,30 +1764,30 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2024-06-27</t>
+          <t>2025-01-02</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>튼튼하네요. 다음에 또 구매할게요.</t>
+          <t>여러제품 사봤었는데 살짝 부실한듯 해보입니다만 깔끔하긴해요</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>가로(mm) x 깊이(mm): 1200 x 500 / 높이(mm): 1200 / 단수(합판갯수): 4단</t>
+          <t>가로(폭): 1000 / 세로(깊이): 500 / 높이(mm): 1950(4단)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://smartstore.naver.com/trendkorea/products/8713897963</t>
+          <t>https://smartstore.naver.com/speedrackstore/products/8693661267</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>스피드랙</t>
+          <t>홈던트하우스</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1774,7 +1797,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>트렌드코리아(추가7)</t>
+          <t>랙홈(추가)</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1786,7 +1809,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>mu****</t>
+          <t>minb***</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1794,30 +1817,30 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>넘 비싸다는 생각이 듭니다.</t>
+          <t>이건 괜히 산듯..이거 한 만큼 위에 공간을 못 써요</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>가로x깊이(설치시 여유공간확보): 가로800x깊이300 / 높이: 900(2단)</t>
+          <t>옵션명: 보강대 추가 / 옵션값: (화이트) 500</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://smartstore.naver.com/estorehouse/products/691601700</t>
+          <t>https://smartstore.naver.com/speedrackstore/products/8664357214</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>스피드랙</t>
+          <t>홈던트하우스</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1827,19 +1850,19 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>스피드랙 온라인지점</t>
+          <t>퍼스트랙</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>선반</t>
+          <t>선반(추가부품)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>gwon******</t>
+          <t>fd****</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1847,25 +1870,25 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2024-06-27</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>잘 사용할게요. 부자되세요.</t>
+          <t>제품이 생각했던것 보다 훨신 좋고 배송이 빨랐습니다</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>가로(mm) x 깊이(mm): 900 x 400 / 높이(mm): 1200 / 단수(합판갯수): 3단</t>
+          <t>가로(폭)x세로(깊이)(mm): 1000x300 / 높이(mm): 1950 / 단수(스피드랙): 3단</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://smartstore.naver.com/trendkorea/products/8713897963</t>
+          <t>https://smartstore.naver.com/speedrackstore/products/8805641337</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1880,7 +1903,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>트렌드코리아(추가7)</t>
+          <t>랙홈(추가7)</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1892,38 +1915,38 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ejyo*****</t>
+          <t>sogr********</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2024-06-29</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>잘도착했어요 설치해보겠습니다</t>
+          <t>빠른배송 완벽한포장 잘 사용하고 있습니다..</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>가로(mm) x 깊이(mm): 1200 x 400 / 높이(mm): 2100 / 단수(홈던트): 5단</t>
+          <t>선반: 가로900 X 깊이400 / 높이: 900 / 단수: 3단</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://smartstore.naver.com/trendkorea/products/8894980678</t>
+          <t>https://smartstore.naver.com/soonavi/products/4737049595</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>홈던트하우스</t>
+          <t>피피랙</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1933,7 +1956,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>트렌드코리아(추가7)</t>
+          <t>수나비</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -1945,7 +1968,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>pook****</t>
+          <t>smki*****</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1953,30 +1976,30 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>배송도 빠르고 좋아요 ㅎㅎ</t>
+          <t>튼튼하고 맘에는 드는데 전화대응은 별로네요</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>가로x깊이(설치시 여유공간확보): 가로600x깊이400 / 높이: 900(2단)</t>
+          <t>가로(폭)x세로(깊이)(mm): 800x400 / 높이(mm): 1800 / 단수: 4단</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://smartstore.naver.com/estorehouse/products/691601700</t>
+          <t>https://smartstore.naver.com/firsteco/products/8816452635</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>스피드랙</t>
+          <t>홈던트하우스</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1986,7 +2009,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>스피드랙 온라인지점</t>
+          <t>에코퍼스트클로벌(추가7)</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -1998,7 +2021,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>gksq***</t>
+          <t>qkdr******</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2006,30 +2029,30 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2024-06-26</t>
+          <t>2025-01-02</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>잘설치해보겠습니다 네</t>
+          <t>선반도 나무가 아닌 철제였슴 좋겠습니다</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>가로(폭)x세로(깊이)(mm): 800x500(mm) / 높이(mm): 2100(mm) / 단수 / 행거봉: 3단 / 2행거</t>
+          <t>가로(mm) x 깊이(mm): 600 x 300 / 높이(mm): 1500 / 단수(합판갯수): 5단</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://smartstore.naver.com/speedrackstore/products/8693699113</t>
+          <t>https://smartstore.naver.com/trendkorea/products/8713897963</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>홈던트하우스</t>
+          <t>스피드랙</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2039,19 +2062,19 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>랙홈(추가)</t>
+          <t>트렌드코리아(추가7)</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t xml:space="preserve">행거 </t>
+          <t>선반</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>hyeo*****</t>
+          <t>rose******</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2059,31 +2082,31 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2024-06-23</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>그냥 튼튼하네요
-짱</t>
+          <t>배송도 빠르고
+사진과 같은 모습이예요</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>가로 x 깊이(폭)(mm): 가로1200 x 깊이600 / 높이 (mm): 높이2100 / 구성 선택: 행거봉 2개 / 선반 3단</t>
+          <t>3. 가로(폭): 1200 / 세로(깊이): 400 / 2. 높이(mm)단수(2단): 1800(2단)</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://smartstore.naver.com/shurackathome/products/4584628047</t>
+          <t>https://smartstore.naver.com/firsteco/products/7714847812</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>슈랙</t>
+          <t>홈던트하우스</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2093,19 +2116,19 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>슈랙</t>
+          <t>퍼스트에코(추가5)</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>행거</t>
+          <t>선반</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>baek*****</t>
+          <t>yang*******</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2113,43 +2136,573 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2024-06-27</t>
+          <t>2025-01-02</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>빠른배송 감사합니다</t>
+          <t>생각보다 흔들려요 조금 아쉽네요</t>
         </is>
       </c>
       <c r="E32" t="n">
+        <v>17</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>가로X깊이 (6면코팅합판+앵글): 가로1000 X 깊이600 / 높이 (mm /일체형기둥): 높이 1800 / 선반단수 (칸수): 3단선반 (2칸)</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/anglestudio/products/4763594399</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>피피랙</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>스마트스토어</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>조립식앵글스튜디오</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>선반</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>mind*****</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>3</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2025-01-04</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>튼튼하진 않아요. 감사합니다</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>15</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>가로(W) mm: 400 / 깊이(D) mm: 300 / 높이(H) mm: 1500 (기본 2단)</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/checknsell/products/4770564406</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>슈랙</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>스마트스토어</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>체크앤셀</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>선반</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>opjj****</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>3</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2025-01-04</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>좋아요 . 좋아요. 좋아요.</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>15</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>가로 x 깊이(폭)(mm): 가로700 x 깊이600 / 높이 (mm): 높이2100 / 구성 선택: 행거봉 2개 / 선반 3단</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/shurackathome/products/4584628047</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>슈랙</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>스마트스토어</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>슈랙</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>행거</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>boyj****</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>3</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2025-01-04</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>물건등 보관하기가 깔끔해요.</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>15</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>가로(폭)x세로(깊이)(mm): 1000x400(mm) / 높이(mm): 2100(mm) / 단수 / 행거봉: 3단 / 2행거</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/speedrackstore/products/8693699113</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>홈던트하우스</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>스마트스토어</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>랙홈(추가)</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">행거 </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>ajaj*****</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>3</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2025-01-02</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>조립이쉽고 튼튼해서좋습니다</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>14</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>가로 x 깊이(설치시 여유공간확보): 가로1100 x 깊이500 / 높이mm: 높이1800 / 선반단수 / 행거봉: 2단 / 행거봉1</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>https://brand.naver.com/speedrack/products/4967519083</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>홈던트하우스</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>스마트스토어</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>스피드랙 온라인지점(추가4)</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>행거</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>bbab***</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>3</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2025-01-04</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>그럭저럭 씁니다. 그럭저럭</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>14</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>가로사이즈 (mm): 가로1000mm / 깊이(폭)사이즈 (mm): 깊이(폭)300mm / 높이(기둥)사이즈 (mm) + 단수: 높이(기둥)1200mm(2단)</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/sunbanstory/products/6423922812</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>홈던트하우스</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>스마트스토어</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>앵그리선반</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>선반</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>da****</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>3</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2025-01-04</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>나쁘지 않습니다 ㅎㅎ</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>11</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>규격: 400mm / 색상: 검정</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>https://brand.naver.com/speedrack/products/6013129935</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>스피드랙</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>스마트스토어</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>스피드랙 온라인지점</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>선반(추가부품)</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>steo***</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>3</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>좋아요.좋아요.좋아요</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>11</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>가로(W) mm: 800 / 깊이(D) mm: 300 / 높이(H) mm: 600 (기본 2단)</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/checknsell/products/4770564406</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>슈랙</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>스마트스토어</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>체크앤셀</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>선반</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>pe****</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>3</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2024-12-29</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>그냥 저냥 쓸만해요</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
         <v>10</v>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>가로(mm) x 깊이(mm): 1000 x 400 / 높이(mm): 2100 / 단수(홈던트): 5단</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>https://smartstore.naver.com/trendkorea/products/8894980678</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>가로(폭): 900 / 세로(깊이): 600 / 높이(mm): 2100(4단)</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/speedrackstore/products/8693661267</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
         <is>
           <t>홈던트하우스</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>스마트스토어</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>트렌드코리아(추가7)</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>스마트스토어</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>랙홈(추가)</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>선반</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>dlcj******</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>3</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2025-01-02</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>물품 잘받았습니다~</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>10</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>가로(폭)x세로(깊이)(mm): 1200x500 / 높이(mm): 1650 / 단수(스피드랙): 3단</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/speedrackstore/products/8805641337</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>스피드랙</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>스마트스토어</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>랙홈(추가7)</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>선반</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>if****</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>3</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2024-12-30</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>잘 받았습니다...</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>10</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>가로(폭)x세로(깊이)(mm): 1200x600 / 높이(mm): 1800 / 단수(스피드랙): 4단</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>https://smartstore.naver.com/speedrackstore/products/8805641337</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>스피드랙</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>스마트스토어</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>랙홈(추가7)</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>선반</t>
         </is>
